--- a/Lista de Cotejo Entrega 1.xlsx
+++ b/Lista de Cotejo Entrega 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hector/Documents/FIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512e62054e8d2e98/Universidad/UADY/Semestre 1/Fundamentos de Ing de Software/ProyectoFIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE10151-486D-9D4C-9917-3FF894FD8DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EE38FB83-FF6F-4EDF-B0C0-6689B868613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45079E8E-2B3E-4448-A2C8-40A2B369FCCB}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{624DD8A0-2B67-FB4A-BDA8-8539612F5F96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{624DD8A0-2B67-FB4A-BDA8-8539612F5F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Facultad de Matemáticas</t>
   </si>
@@ -221,12 +221,21 @@
   <si>
     <t xml:space="preserve">Total </t>
   </si>
+  <si>
+    <t>Canva MusicHub</t>
+  </si>
+  <si>
+    <t>Guión en Word</t>
+  </si>
+  <si>
+    <t>Esqueleto entrega 1 markdown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +295,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -622,8 +647,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -746,35 +772,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1087,134 +1114,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8AD559-350D-6243-B129-CCAEF7761FB4}">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="35.375" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
@@ -1223,20 +1266,22 @@
       <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:11" ht="47" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:13" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1245,60 +1290,68 @@
       <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="14"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="K11" s="17"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -1307,168 +1360,191 @@
       <c r="E14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="14"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="47"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="17"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="47"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="K16" s="14"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="47"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="14"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="B19" s="45"/>
-      <c r="C19" s="47" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="57" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="2:11" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="49"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="52"/>
+    </row>
+    <row r="20" spans="2:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="2:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="24" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" ht="136" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="17"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="K22" s="14"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="14"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="2:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -1477,60 +1553,72 @@
       <c r="E25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49" t="s">
+        <v>55</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="K25" s="14"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="51"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="52"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="17"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="36" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="14"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="38" t="s">
@@ -1539,42 +1627,48 @@
       <c r="E29" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" ht="39" x14ac:dyDescent="0.2">
+      <c r="K29" s="14"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" ht="36" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="47"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="40" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="17"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1583,14 +1677,16 @@
       <c r="G32" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1599,26 +1695,27 @@
       <c r="G33" s="43">
         <v>0.1</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1">
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="K33" s="1">
         <v>0</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -1626,6 +1723,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{26527F9D-3099-47EA-B343-9C13C434736A}"/>
+    <hyperlink ref="I25" r:id="rId2" xr:uid="{954CE70A-C264-4C86-A200-CDFA524DA24F}"/>
+    <hyperlink ref="G23" r:id="rId3" xr:uid="{22D7C311-655B-4925-8C63-F486EA9DCBC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>